--- a/app/excel/UNSCRAMBLE.xlsx
+++ b/app/excel/UNSCRAMBLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="172">
   <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blah blah blah...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Where are you going in the afternoon?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +227,38 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -247,29 +275,401 @@
       </rPr>
       <t>？</t>
     </r>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mandarin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phrase transformations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They are taught gymnastics by an Olympic champion.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>I'm going to the photographer's. He'll take my photograph.</t>
+  </si>
+  <si>
+    <t>I'm going to the photographer's to have</t>
+  </si>
+  <si>
+    <t>my photograph taken.</t>
+  </si>
+  <si>
+    <t>the photograph taken.</t>
+  </si>
+  <si>
+    <t>They might sell the house before we get there.</t>
+  </si>
+  <si>
+    <t>The house</t>
+  </si>
+  <si>
+    <t>might be sold before we get there.</t>
+  </si>
+  <si>
+    <t>might be sold by them before we get there.</t>
+  </si>
+  <si>
+    <t>What can I do to help her? he asked me.</t>
+  </si>
+  <si>
+    <t>He asked me what</t>
+  </si>
+  <si>
+    <t>he could do to help her.</t>
+  </si>
+  <si>
+    <t>Will I ever see her again? he asked himself.</t>
+  </si>
+  <si>
+    <t>He wondered if</t>
+  </si>
+  <si>
+    <t>he would ever see her again.</t>
+  </si>
+  <si>
+    <t>I didn't break the plate, she said.</t>
+  </si>
+  <si>
+    <t>She denied</t>
+  </si>
+  <si>
+    <t>breaking the plate.</t>
+  </si>
+  <si>
+    <t>having broken the plate.</t>
+  </si>
+  <si>
+    <t>that she had broken the plate.</t>
+  </si>
+  <si>
+    <t>her breaking the plate.</t>
+  </si>
+  <si>
+    <t>her having broken the plate.</t>
+  </si>
+  <si>
+    <t>she had broken the plate.</t>
+  </si>
+  <si>
+    <t>There aren't any books for him to read.</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>hasn't any books to read.</t>
+  </si>
+  <si>
+    <t>has not any books to read.</t>
+  </si>
+  <si>
+    <t>I suppose she was very beautiful when she was young.</t>
+  </si>
+  <si>
+    <t>She must</t>
+  </si>
+  <si>
+    <t>have been very beautiful when she was young.</t>
+  </si>
+  <si>
+    <t>It's just possible that he's gone abroad.</t>
+  </si>
+  <si>
+    <t>He might</t>
+  </si>
+  <si>
+    <t>have gone abroad.</t>
+  </si>
+  <si>
+    <t>It's ages since we went out together.</t>
+  </si>
+  <si>
+    <t>We haven't</t>
+  </si>
+  <si>
+    <t>been out together for ages.</t>
+  </si>
+  <si>
+    <t>gone out together for ages.</t>
+  </si>
+  <si>
+    <t>What a pity he can't come with us!</t>
+  </si>
+  <si>
+    <t>I wish</t>
+  </si>
+  <si>
+    <t>he could come with us.</t>
+  </si>
+  <si>
+    <t>He's thought to have left the country early this morning.</t>
+  </si>
+  <si>
+    <t>It's thought that</t>
+  </si>
+  <si>
+    <t>he left the country early this morning.</t>
+  </si>
+  <si>
+    <t>An Olympic champion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">teaches </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gymnastics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't remember his address, I said. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I said</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>could</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>his address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I won't answer her question, he said.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">He </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I've never eaten such a goot meal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best meal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eaten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The train is so fast that it gets to London in forty minutes. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>such</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fast </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that it gets to London in forty minutes</t>
+  </si>
+  <si>
+    <t>She has no one to play with.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perhaps they thought we'd telephone them before our arrival.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>would</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before our arrival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In spite of living in the city, she prefers the country.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she prefers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He made three copies of the letter because he thought one might get lost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He made three copies of the letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">one </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,16 +705,26 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,15 +749,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,32 +1056,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="37.75" customWidth="1"/>
-    <col min="7" max="7" width="36.25" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="6.875" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="6.25" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="7.625" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="7.375" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="7.375" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -682,55 +1093,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -738,49 +1149,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -788,178 +1199,1113 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
+      <c r="S4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15">
+      <c r="T5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" t="s">
+        <v>127</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="7:20">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="7:20">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="7:20">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="7:20">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="7:20">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="7:20">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
